--- a/data/trans_dic/P62-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P62-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,27; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,32; 3,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,37; 5,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>2,0; 6,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>0,63; 7,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,01; 3,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,44; 3,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,37; 3,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,79%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>1,34; 7,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>3,3; 8,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>3,45; 9,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>5,26; 23,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,73; 6,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>5,02; 11,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>2,36; 7,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>3,79; 13,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,28; 5,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,82; 8,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,41; 7,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>5,5; 13,73</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>25,95; 48,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>13,3; 24,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>9,93; 19,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>18,68; 40,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>3,2; 7,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>6,72; 13,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>6,19; 12,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>10,57; 18,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>7,12; 12,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>10,13; 15,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>8,17; 13,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>14,12; 22,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,26%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>44,74; 67,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>25,49; 37,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>23,29; 34,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>32,18; 49,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>8,7; 15,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>10,91; 18,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>9,33; 15,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>12,79; 20,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>16,67; 24,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>17,47; 24,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>16,06; 22,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>20,58; 28,4</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,85%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>71,69; 83,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>59,04; 71,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>59,0; 69,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>60,4; 71,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>19,52; 28,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>21,2; 30,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>24,69; 34,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,79; 36,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>41,03; 49,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>38,11; 46,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>41,3; 48,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>43,37; 50,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,89%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>97,55; 99,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>98,62; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>97,67; 99,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>85,03; 89,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>59,21; 66,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>67,82; 74,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>65,34; 72,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>67,29; 80,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>76,02; 80,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>81,11; 85,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>79,87; 84,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>75,7; 82,69</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,01%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>51,86; 57,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>41,74; 46,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>43,94; 48,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>53,29; 59,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>22,86; 26,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,22; 30,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,2; 32,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,06; 50,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>34,19; 37,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,92; 38,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>44,77; 52,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P62-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,19</t>
+          <t>0,68; 7,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,99</t>
+          <t>0,36; 3,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 23,42</t>
+          <t>4,84; 23,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 13,61</t>
+          <t>3,84; 13,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 13,73</t>
+          <t>5,54; 14,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,75%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 40,8</t>
+          <t>17,98; 39,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,98</t>
+          <t>10,28; 18,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 22,51</t>
+          <t>13,78; 22,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>24,42%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,18; 49,63</t>
+          <t>31,71; 49,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 20,13</t>
+          <t>12,97; 20,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 28,4</t>
+          <t>20,75; 28,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>46,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,4; 71,53</t>
+          <t>59,5; 70,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,79; 36,95</t>
+          <t>28,52; 36,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>43,37; 50,06</t>
+          <t>43,11; 49,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>77,79%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,55; 99,61</t>
+          <t>96,64; 99,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,62; 100,0</t>
+          <t>98,16; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,67; 99,51</t>
+          <t>96,71; 99,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,03; 89,19</t>
+          <t>82,17; 88,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,21; 66,75</t>
+          <t>47,08; 57,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,82; 74,77</t>
+          <t>59,65; 69,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,34; 72,47</t>
+          <t>58,1; 68,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,29; 80,33</t>
+          <t>58,21; 90,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,02; 80,74</t>
+          <t>70,41; 77,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,11; 85,46</t>
+          <t>77,78; 84,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,87; 84,17</t>
+          <t>76,77; 82,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>75,7; 82,69</t>
+          <t>70,7; 88,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>80,39%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>97,12; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98,05; 100,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>97,57; 100,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>84,76; 90,76</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68,74; 79,08</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>72,42; 81,34</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69,52; 79,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>72,46; 78,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80,19; 87,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>82,81; 88,31</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>80,7; 87,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>78,23; 82,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54,56%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44,02%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46,36%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43,29%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35,61%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37,33%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>51,86; 57,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>41,74; 46,27</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>43,94; 48,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>53,29; 59,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>50,83; 57,0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,86; 26,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27,22; 30,93</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>28,2; 32,06</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>37,06; 50,73</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36,81; 59,16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>34,19; 37,31</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>34,19; 37,12</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>35,92; 38,72</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>44,77; 52,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44,09; 58,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P62-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +735,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,43</t>
+          <t>0,43; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,26</t>
+          <t>1,36; 5,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,64</t>
+          <t>1,99; 6,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,07</t>
+          <t>0,66; 6,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,23</t>
+          <t>0,99; 3,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,98</t>
+          <t>1,4; 3,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,66</t>
+          <t>0,44; 3,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,16</t>
+          <t>1,53; 7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,45</t>
+          <t>3,29; 8,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,83</t>
+          <t>3,42; 9,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 23,18</t>
+          <t>4,57; 22,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,95</t>
+          <t>1,88; 6,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,2</t>
+          <t>5,09; 11,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,11</t>
+          <t>2,5; 7,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,69</t>
+          <t>3,94; 13,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,97</t>
+          <t>2,11; 6,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,92</t>
+          <t>4,85; 9,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,55</t>
+          <t>3,59; 7,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,04</t>
+          <t>5,43; 14,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 48,36</t>
+          <t>23,95; 47,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 24,16</t>
+          <t>13,88; 25,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 19,46</t>
+          <t>9,44; 19,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 39,9</t>
+          <t>17,12; 39,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,8</t>
+          <t>3,2; 7,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,0</t>
+          <t>6,84; 13,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,09</t>
+          <t>6,25; 12,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 18,55</t>
+          <t>10,24; 18,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,98</t>
+          <t>7,29; 13,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 15,88</t>
+          <t>10,55; 15,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,5</t>
+          <t>8,5; 13,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 22,1</t>
+          <t>13,77; 22,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,74; 67,49</t>
+          <t>45,35; 68,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,49; 37,5</t>
+          <t>25,0; 37,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,29; 34,54</t>
+          <t>23,06; 34,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,71; 49,3</t>
+          <t>31,49; 48,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 15,54</t>
+          <t>8,58; 15,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 18,4</t>
+          <t>10,82; 18,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,91</t>
+          <t>9,15; 15,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,34</t>
+          <t>12,76; 19,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 24,23</t>
+          <t>16,54; 24,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 24,54</t>
+          <t>17,43; 24,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,34</t>
+          <t>15,8; 22,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 28,68</t>
+          <t>20,91; 28,9</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,69; 83,04</t>
+          <t>71,78; 83,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,04; 71,27</t>
+          <t>58,79; 71,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,0; 69,95</t>
+          <t>58,67; 70,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,5; 70,73</t>
+          <t>59,6; 70,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 28,69</t>
+          <t>19,94; 28,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 30,62</t>
+          <t>21,08; 30,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,69; 34,63</t>
+          <t>24,46; 34,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,52; 36,59</t>
+          <t>28,6; 36,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41,03; 49,36</t>
+          <t>41,26; 49,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,11; 46,58</t>
+          <t>38,13; 46,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 48,93</t>
+          <t>41,11; 49,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>43,11; 49,75</t>
+          <t>43,01; 49,67</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,64; 99,42</t>
+          <t>96,56; 99,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,16; 100,0</t>
+          <t>98,15; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,71; 99,41</t>
+          <t>96,65; 99,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82,17; 88,03</t>
+          <t>81,82; 87,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,08; 57,29</t>
+          <t>46,74; 57,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,65; 69,75</t>
+          <t>59,7; 69,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,1; 68,46</t>
+          <t>58,34; 68,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,21; 90,35</t>
+          <t>57,78; 89,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,41; 77,03</t>
+          <t>70,22; 76,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,78; 84,09</t>
+          <t>77,86; 84,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76,77; 82,82</t>
+          <t>76,25; 83,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,7; 88,92</t>
+          <t>70,66; 88,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>97,12; 100,0</t>
+          <t>97,52; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,05; 100,0</t>
+          <t>97,87; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>97,57; 100,0</t>
+          <t>97,76; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,76; 90,76</t>
+          <t>84,71; 90,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,74; 79,08</t>
+          <t>68,67; 79,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,42; 81,34</t>
+          <t>72,52; 81,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,52; 79,22</t>
+          <t>69,31; 79,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72,46; 78,07</t>
+          <t>72,54; 78,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>80,19; 87,0</t>
+          <t>80,81; 87,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>82,81; 88,31</t>
+          <t>82,69; 88,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>80,7; 87,09</t>
+          <t>80,45; 87,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,23; 82,45</t>
+          <t>78,18; 82,6</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51,86; 57,12</t>
+          <t>51,84; 57,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,74; 46,27</t>
+          <t>41,5; 46,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,94; 48,4</t>
+          <t>44,11; 48,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,0</t>
+          <t>51,19; 57,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,49</t>
+          <t>22,8; 26,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,22; 30,93</t>
+          <t>27,18; 30,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,2; 32,06</t>
+          <t>28,31; 32,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,81; 59,16</t>
+          <t>36,79; 62,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,31</t>
+          <t>34,06; 37,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,12</t>
+          <t>34,16; 37,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35,92; 38,72</t>
+          <t>35,94; 38,83</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>44,09; 58,57</t>
+          <t>44,09; 59,01</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que percibe algun tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10621</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13608</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15104</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7486</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4715</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>976; 9643</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1399; 10786</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12079</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5579</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4645; 17449</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5744; 18611</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1499; 14056</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7626</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6965; 22756</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8642; 24379</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2327; 19778</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6263</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16750</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14440</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8123</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10780</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25294</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12850</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12055</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17043</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42044</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27289</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20178</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2668; 13751</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9881; 26484</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8325; 23678</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3285; 16321</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5327; 18957</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16705; 37253</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7112; 22331</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6255; 20907</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9654; 28071</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30493; 57063</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18937; 39085</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12507; 32278</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25070</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46723</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29525</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19871</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19287</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39667</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29632</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26592</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44356</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>86390</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59156</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46463</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16689; 33261</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34895; 63151</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19654; 40405</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12339; 28134</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12297; 29752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28457; 55110</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21442; 41305</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19421; 35021</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33097; 59281</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70423; 105840</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46863; 75539</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36048; 57639</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45794</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>75827</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79808</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54596</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41061</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>54635</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47340</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41311</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>86855</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>130462</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>127148</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>95907</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36655; 55133</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>61221; 92975</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>63895; 96483</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42748; 66501</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29563; 53441</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41398; 71904</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36050; 62199</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32775; 51187</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70383; 105306</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>109333; 151249</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>106006; 147900</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82110; 113478</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>171572</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>174529</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>200303</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>170209</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>81972</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>95754</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>112851</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>106361</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>253544</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>270283</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>313154</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>276570</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>158358; 183640</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>157565; 190480</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>182054; 217670</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>155408; 183716</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>67552; 97650</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>78202; 114061</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93747; 133099</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95537; 120348</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>230814; 276501</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>243664; 297715</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>285111; 341087</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>255838; 295432</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>285674</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>305672</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>323264</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>299517</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>176739</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>225580</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>234052</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>431816</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>462413</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>531251</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>557316</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>731333</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>280030; 288345</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>301107; 306770</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>317208; 326296</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>287367; 308985</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>158212; 193195</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>207912; 243423</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>215024; 251807</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>340290; 527377</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>441335; 483667</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>510005; 550463</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>531299; 578362</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>664273; 834134</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>206377</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>248789</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>250401</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>247165</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>247304</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>297611</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>294675</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>319332</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>453682</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>546400</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>545077</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>566497</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>202260; 207412</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>244528; 249851</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>246452; 252094</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>238161; 255654</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>228556; 263261</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>280565; 313548</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>274597; 314140</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>307203; 331649</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>436588; 470422</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>526506; 561995</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>521564; 564487</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>550930; 582094</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>741679</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>872220</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>902225</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>801470</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>578130</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>748218</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>742021</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>942962</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1319809</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1620438</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1644246</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1744432</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>704703; 777999</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>822352; 917084</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>858465; 945068</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>757945; 846187</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>535011; 619576</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>699546; 792414</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>695881; 792794</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>801281; 1350692</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1262052; 1379693</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1556186; 1691213</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1583199; 1710332</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1612998; 2158940</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>